--- a/simulation/python/Book1.xlsx
+++ b/simulation/python/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APF\junbot_adaptive_planner\simulation\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5286331F-B0C0-46F6-BE9A-04DBFCA88EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5BDF17-F1E7-4277-B871-55C536EFA041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -374,18 +374,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="B1">
         <v>250</v>
@@ -400,7 +398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>250</v>
       </c>
@@ -417,7 +415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>250</v>
       </c>
@@ -446,12 +444,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1025" width="8.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>500</v>
       </c>

--- a/simulation/python/Book1.xlsx
+++ b/simulation/python/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APF\junbot_adaptive_planner\simulation\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5BDF17-F1E7-4277-B871-55C536EFA041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85B93C-3CAC-4A52-8A4A-6D6E48782296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,9 +372,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -383,16 +385,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="B1">
         <v>250</v>
       </c>
       <c r="C1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="D1">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="E1">
         <v>0</v>
@@ -430,6 +432,74 @@
       </c>
       <c r="E3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>350</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>300</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>150</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/simulation/python/Book1.xlsx
+++ b/simulation/python/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APF\junbot_adaptive_planner\simulation\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85B93C-3CAC-4A52-8A4A-6D6E48782296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6736A-A7BC-4469-B07F-70A0DB510FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7580" yWindow="1860" windowWidth="14400" windowHeight="7450" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -385,19 +385,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="B1">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="C1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -405,7 +405,7 @@
         <v>250</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -414,24 +414,24 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="B3">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -456,7 +456,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C5">
         <v>50</v>

--- a/simulation/python/Book1.xlsx
+++ b/simulation/python/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APF\junbot_adaptive_planner\simulation\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A6736A-A7BC-4469-B07F-70A0DB510FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A788A9-4018-40AD-A8C3-356DD81A83D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="1860" windowWidth="14400" windowHeight="7450" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5295" yWindow="2220" windowWidth="21600" windowHeight="11235" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,15 +375,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>250</v>
       </c>
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>250</v>
       </c>
@@ -417,7 +417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>300</v>
       </c>
@@ -425,16 +425,16 @@
         <v>350</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -442,16 +442,16 @@
         <v>300</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>300</v>
       </c>
@@ -459,16 +459,16 @@
         <v>250</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>300</v>
       </c>
@@ -476,16 +476,16 @@
         <v>200</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>300</v>
       </c>
@@ -493,10 +493,10 @@
         <v>150</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -514,12 +514,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.54296875"/>
+    <col min="1" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>500</v>
       </c>
